--- a/database/industries/lastic/petayer/product/quarterly.xlsx
+++ b/database/industries/lastic/petayer/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDDF610-D1E2-49EA-98CE-FFC992246AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47B55D-9D30-4158-A923-DFDE005FAEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -568,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I84"/>
+  <dimension ref="B1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -586,8 +601,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,8 +618,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +635,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -620,8 +650,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -632,8 +667,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -644,8 +684,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -654,8 +699,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -676,8 +726,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -686,196 +751,321 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>2682</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2323</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2407</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2134</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2062</v>
+      </c>
+      <c r="J14" s="9">
         <v>2113</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>2030</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>2020</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>1447</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>2101</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>4342</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4543</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4504</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4275</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4106</v>
+      </c>
+      <c r="J15" s="11">
         <v>4755</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>4707</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>4695</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>4989</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>5014</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>95</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>55</v>
+      </c>
+      <c r="H16" s="9">
+        <v>34</v>
+      </c>
+      <c r="I16" s="9">
+        <v>71</v>
+      </c>
+      <c r="J16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>109</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>30</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>72</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>7119</v>
+      </c>
+      <c r="F17" s="13">
+        <v>6867</v>
+      </c>
+      <c r="G17" s="13">
+        <v>6966</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6443</v>
+      </c>
+      <c r="I17" s="13">
+        <v>6239</v>
+      </c>
+      <c r="J17" s="13">
         <v>6871</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K17" s="13">
         <v>6846</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L17" s="13">
         <v>6745</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>6508</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>7125</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -884,8 +1074,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -894,8 +1089,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -904,10 +1104,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -926,8 +1131,23 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -936,90 +1156,140 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
+      <c r="E24" s="11">
+        <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>-6</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>12</v>
+      <c r="F26" s="11">
+        <v>0</v>
       </c>
       <c r="G26" s="11">
         <v>0</v>
@@ -1030,126 +1300,216 @@
       <c r="I26" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
+        <v>2830</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2158</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2676</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1916</v>
+      </c>
+      <c r="I28" s="11">
+        <v>2063</v>
+      </c>
+      <c r="J28" s="11">
         <v>2064</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="K28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="11">
         <v>1793</v>
       </c>
-      <c r="H28" s="11">
+      <c r="M28" s="11">
         <v>2031</v>
       </c>
-      <c r="I28" s="11">
+      <c r="N28" s="11">
         <v>2233</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>4388</v>
+      </c>
+      <c r="F29" s="9">
+        <v>4514</v>
+      </c>
+      <c r="G29" s="9">
+        <v>4520</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4145</v>
+      </c>
+      <c r="I29" s="9">
+        <v>4123</v>
+      </c>
+      <c r="J29" s="9">
         <v>4686</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="9">
         <v>4755</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>4841</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>5083</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>52</v>
+      </c>
+      <c r="F30" s="11">
+        <v>42</v>
+      </c>
+      <c r="G30" s="11">
+        <v>45</v>
+      </c>
+      <c r="H30" s="11">
+        <v>45</v>
+      </c>
+      <c r="I30" s="11">
+        <v>32</v>
+      </c>
+      <c r="J30" s="11">
         <v>41</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11">
         <v>33</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>25</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>7272</v>
+      </c>
+      <c r="F31" s="15">
+        <v>6714</v>
+      </c>
+      <c r="G31" s="15">
+        <v>7235</v>
+      </c>
+      <c r="H31" s="15">
+        <v>6106</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6218</v>
+      </c>
+      <c r="J31" s="15">
         <v>6791</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <v>6581</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>6897</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>7375</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1158,8 +1518,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1168,8 +1533,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1178,10 +1548,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1200,8 +1575,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1210,222 +1600,362 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>-744</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-4151</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>12</v>
+        <v>-32938</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-79043</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>-120553</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>-28419</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>1130528</v>
+      </c>
+      <c r="F42" s="11">
+        <v>996588</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1616599</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1083544</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1149756</v>
+      </c>
+      <c r="J42" s="11">
         <v>1261918</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="11">
         <v>1253660</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>1543131</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>1847502</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>1466177</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2047327</v>
+      </c>
+      <c r="G43" s="9">
+        <v>2598576</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2288232</v>
+      </c>
+      <c r="I43" s="9">
+        <v>2248458</v>
+      </c>
+      <c r="J43" s="9">
         <v>2559915</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="K43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="9">
         <v>2766238</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>3490127</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>3818889</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>16812</v>
+      </c>
+      <c r="F44" s="11">
+        <v>15368</v>
+      </c>
+      <c r="G44" s="11">
+        <v>18278</v>
+      </c>
+      <c r="H44" s="11">
+        <v>15272</v>
+      </c>
+      <c r="I44" s="11">
+        <v>10421</v>
+      </c>
+      <c r="J44" s="11">
         <v>13656</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="11">
+      <c r="K44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="11">
         <v>16598</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>16891</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>43391</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>2579835</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2980240</v>
+      </c>
+      <c r="G45" s="15">
+        <v>4108749</v>
+      </c>
+      <c r="H45" s="15">
+        <v>3358629</v>
+      </c>
+      <c r="I45" s="15">
+        <v>3408635</v>
+      </c>
+      <c r="J45" s="15">
         <v>3835489</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
         <v>4036496</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>5050149</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N45" s="15">
         <v>5709782</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1434,8 +1964,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1444,8 +1979,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1454,10 +1994,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1476,8 +2021,23 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1486,200 +2046,325 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>12</v>
+      <c r="E53" s="9">
+        <v>-372000000</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G53" s="9">
+        <v>691833333</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>399479859</v>
+      </c>
+      <c r="F56" s="11">
+        <v>446714219</v>
+      </c>
+      <c r="G56" s="11">
+        <v>581588015</v>
+      </c>
+      <c r="H56" s="11">
+        <v>565524008</v>
+      </c>
+      <c r="I56" s="11">
+        <v>545851672</v>
+      </c>
+      <c r="J56" s="11">
         <v>608153253</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>670054780</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>699196877</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>759788774</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>827363189</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>334133318</v>
+      </c>
+      <c r="F57" s="9">
+        <v>451400975</v>
+      </c>
+      <c r="G57" s="9">
+        <v>571360619</v>
+      </c>
+      <c r="H57" s="9">
+        <v>552046321</v>
+      </c>
+      <c r="I57" s="9">
+        <v>544193791</v>
+      </c>
+      <c r="J57" s="9">
         <v>546290013</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>550776341</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>581753523</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>720951663</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>751306118</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>323307692</v>
+      </c>
+      <c r="F58" s="11">
+        <v>365690476</v>
+      </c>
+      <c r="G58" s="11">
+        <v>406133333</v>
+      </c>
+      <c r="H58" s="11">
+        <v>339377778</v>
+      </c>
+      <c r="I58" s="11">
+        <v>325406250</v>
+      </c>
+      <c r="J58" s="11">
         <v>333073171</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>338758621</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>502969697</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>675640000</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>735440678</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1688,8 +2373,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1698,8 +2388,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1708,10 +2403,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1730,8 +2430,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1740,85 +2455,135 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
+      <c r="E65" s="11">
+        <v>0</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
+      <c r="E66" s="9">
+        <v>494</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1622</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -1836,102 +2601,177 @@
       <c r="I67" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>-588537</v>
+      </c>
+      <c r="F68" s="9">
+        <v>-672841</v>
+      </c>
+      <c r="G68" s="9">
+        <v>-825922</v>
+      </c>
+      <c r="H68" s="9">
+        <v>-889611</v>
+      </c>
+      <c r="I68" s="9">
+        <v>-816013</v>
+      </c>
+      <c r="J68" s="9">
         <v>-1028232</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>-1023295</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>-1006339</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>-1306718</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>-1433154</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>-909978</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-1269475</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-1480421</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-1619292</v>
+      </c>
+      <c r="I69" s="11">
+        <v>-2131962</v>
+      </c>
+      <c r="J69" s="11">
         <v>-2311624</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>-2660595</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>-2823893</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>-3248247</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>-3404487</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>-6708</v>
+      </c>
+      <c r="F70" s="9">
+        <v>-10459</v>
+      </c>
+      <c r="G70" s="9">
+        <v>-10045</v>
+      </c>
+      <c r="H70" s="9">
+        <v>-13227</v>
+      </c>
+      <c r="I70" s="9">
+        <v>-8634</v>
+      </c>
+      <c r="J70" s="9">
         <v>-13574</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>-11843</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>-13541</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>-13276</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>-32680</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
+        <v>-1504729</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-1952775</v>
+      </c>
+      <c r="G71" s="13">
+        <v>-2314766</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-2522130</v>
+      </c>
+      <c r="I71" s="13">
+        <v>-2956609</v>
+      </c>
+      <c r="J71" s="13">
         <v>-3353430</v>
       </c>
-      <c r="F71" s="13">
+      <c r="K71" s="13">
         <v>-3695733</v>
       </c>
-      <c r="G71" s="13">
+      <c r="L71" s="13">
         <v>-3843773</v>
       </c>
-      <c r="H71" s="13">
+      <c r="M71" s="13">
         <v>-4568241</v>
       </c>
-      <c r="I71" s="13">
+      <c r="N71" s="13">
         <v>-4870321</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1940,8 +2780,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1950,8 +2795,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1960,10 +2810,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1982,8 +2837,23 @@
       <c r="I75" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1992,194 +2862,319 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
+      <c r="E78" s="11">
+        <v>0</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>12</v>
+      <c r="E79" s="9">
+        <v>-250</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9">
+        <v>-2529</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>0</v>
+        <v>-32938</v>
       </c>
       <c r="F80" s="11">
-        <v>0</v>
+        <v>-34816</v>
       </c>
       <c r="G80" s="11">
-        <v>0</v>
+        <v>-41510</v>
       </c>
       <c r="H80" s="11">
-        <v>0</v>
+        <v>-28419</v>
       </c>
       <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>28419</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>0</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>541991</v>
+      </c>
+      <c r="F81" s="9">
+        <v>288488</v>
+      </c>
+      <c r="G81" s="9">
+        <v>726918</v>
+      </c>
+      <c r="H81" s="9">
+        <v>193933</v>
+      </c>
+      <c r="I81" s="9">
+        <v>310079</v>
+      </c>
+      <c r="J81" s="9">
         <v>233686</v>
       </c>
-      <c r="F81" s="9">
+      <c r="K81" s="9">
         <v>224347</v>
       </c>
-      <c r="G81" s="9">
+      <c r="L81" s="9">
         <v>247321</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>236413</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>414348</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>556199</v>
+      </c>
+      <c r="F82" s="11">
+        <v>768149</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1102129</v>
+      </c>
+      <c r="H82" s="11">
+        <v>668940</v>
+      </c>
+      <c r="I82" s="11">
+        <v>111749</v>
+      </c>
+      <c r="J82" s="11">
         <v>248291</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-62583</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-57655</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>241880</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>414402</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>10104</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4900</v>
+      </c>
+      <c r="G83" s="9">
+        <v>8231</v>
+      </c>
+      <c r="H83" s="9">
+        <v>2045</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1779</v>
+      </c>
+      <c r="J83" s="9">
         <v>82</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>-2019</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>3057</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>3615</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>10711</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
+        <v>1075106</v>
+      </c>
+      <c r="F84" s="13">
+        <v>1026721</v>
+      </c>
+      <c r="G84" s="13">
+        <v>1793239</v>
+      </c>
+      <c r="H84" s="13">
+        <v>836499</v>
+      </c>
+      <c r="I84" s="13">
+        <v>452026</v>
+      </c>
+      <c r="J84" s="13">
         <v>482059</v>
       </c>
-      <c r="F84" s="13">
+      <c r="K84" s="13">
         <v>159745</v>
       </c>
-      <c r="G84" s="13">
+      <c r="L84" s="13">
         <v>192723</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>481908</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>839461</v>
       </c>
     </row>

--- a/database/industries/lastic/petayer/product/quarterly.xlsx
+++ b/database/industries/lastic/petayer/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47B55D-9D30-4158-A923-DFDE005FAEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D6812-FAD5-41CE-BF18-2635FC2A1DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -587,12 +587,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -607,7 +607,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -656,7 +656,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -705,7 +705,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -757,7 +757,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -789,14 +789,14 @@
       <c r="L10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
+      <c r="M10" s="9">
+        <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -850,8 +850,8 @@
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -920,37 +920,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>2682</v>
+        <v>2323</v>
       </c>
       <c r="F14" s="9">
-        <v>2323</v>
+        <v>2407</v>
       </c>
       <c r="G14" s="9">
-        <v>2407</v>
+        <v>2134</v>
       </c>
       <c r="H14" s="9">
-        <v>2134</v>
+        <v>2062</v>
       </c>
       <c r="I14" s="9">
-        <v>2062</v>
+        <v>2113</v>
       </c>
       <c r="J14" s="9">
-        <v>2113</v>
+        <v>2030</v>
       </c>
       <c r="K14" s="9">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="L14" s="9">
-        <v>2020</v>
+        <v>1447</v>
       </c>
       <c r="M14" s="9">
-        <v>1447</v>
+        <v>2101</v>
       </c>
       <c r="N14" s="9">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -959,37 +959,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>4342</v>
+        <v>4543</v>
       </c>
       <c r="F15" s="11">
-        <v>4543</v>
+        <v>4504</v>
       </c>
       <c r="G15" s="11">
-        <v>4504</v>
+        <v>4275</v>
       </c>
       <c r="H15" s="11">
-        <v>4275</v>
+        <v>4106</v>
       </c>
       <c r="I15" s="11">
-        <v>4106</v>
+        <v>4755</v>
       </c>
       <c r="J15" s="11">
-        <v>4755</v>
+        <v>4707</v>
       </c>
       <c r="K15" s="11">
-        <v>4707</v>
+        <v>4695</v>
       </c>
       <c r="L15" s="11">
-        <v>4695</v>
+        <v>4989</v>
       </c>
       <c r="M15" s="11">
-        <v>4989</v>
+        <v>5014</v>
       </c>
       <c r="N15" s="11">
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -998,74 +998,74 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G16" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H16" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I16" s="9">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="J16" s="9">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="K16" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="L16" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M16" s="9">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N16" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>7119</v>
+        <v>6867</v>
       </c>
       <c r="F17" s="13">
-        <v>6867</v>
+        <v>6966</v>
       </c>
       <c r="G17" s="13">
-        <v>6966</v>
+        <v>6443</v>
       </c>
       <c r="H17" s="13">
-        <v>6443</v>
+        <v>6239</v>
       </c>
       <c r="I17" s="13">
-        <v>6239</v>
+        <v>6871</v>
       </c>
       <c r="J17" s="13">
-        <v>6871</v>
+        <v>6846</v>
       </c>
       <c r="K17" s="13">
-        <v>6846</v>
+        <v>6745</v>
       </c>
       <c r="L17" s="13">
-        <v>6745</v>
+        <v>6508</v>
       </c>
       <c r="M17" s="13">
-        <v>6508</v>
+        <v>7125</v>
       </c>
       <c r="N17" s="13">
-        <v>7125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1110,7 +1110,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1194,14 +1194,14 @@
       <c r="L23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>17</v>
+      <c r="M23" s="9">
+        <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
@@ -1209,8 +1209,8 @@
         <v>16</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11">
-        <v>0</v>
+      <c r="E24" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>17</v>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
         <v>-6</v>
       </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="9" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
@@ -1300,11 +1300,11 @@
       <c r="I26" s="11">
         <v>0</v>
       </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>17</v>
+      <c r="J26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
       </c>
       <c r="L26" s="11">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>21</v>
       </c>
@@ -1364,37 +1364,37 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>2830</v>
+        <v>2158</v>
       </c>
       <c r="F28" s="11">
-        <v>2158</v>
+        <v>2676</v>
       </c>
       <c r="G28" s="11">
-        <v>2676</v>
+        <v>1916</v>
       </c>
       <c r="H28" s="11">
-        <v>1916</v>
+        <v>2063</v>
       </c>
       <c r="I28" s="11">
-        <v>2063</v>
-      </c>
-      <c r="J28" s="11">
         <v>2064</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>17</v>
+      <c r="J28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1793</v>
       </c>
       <c r="L28" s="11">
-        <v>1793</v>
+        <v>2031</v>
       </c>
       <c r="M28" s="11">
-        <v>2031</v>
+        <v>2233</v>
       </c>
       <c r="N28" s="11">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1403,37 +1403,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>4388</v>
+        <v>4514</v>
       </c>
       <c r="F29" s="9">
-        <v>4514</v>
+        <v>4520</v>
       </c>
       <c r="G29" s="9">
-        <v>4520</v>
+        <v>4145</v>
       </c>
       <c r="H29" s="9">
-        <v>4145</v>
+        <v>4123</v>
       </c>
       <c r="I29" s="9">
-        <v>4123</v>
-      </c>
-      <c r="J29" s="9">
         <v>4686</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9">
+        <v>4755</v>
       </c>
       <c r="L29" s="9">
-        <v>4755</v>
+        <v>4841</v>
       </c>
       <c r="M29" s="9">
-        <v>4841</v>
+        <v>5083</v>
       </c>
       <c r="N29" s="9">
-        <v>5083</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
@@ -1442,74 +1442,74 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30" s="11">
         <v>45</v>
       </c>
       <c r="H30" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11">
-        <v>32</v>
-      </c>
-      <c r="J30" s="11">
         <v>41</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11">
+        <v>33</v>
       </c>
       <c r="L30" s="11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M30" s="11">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N30" s="11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>7272</v>
+        <v>6714</v>
       </c>
       <c r="F31" s="15">
-        <v>6714</v>
+        <v>7235</v>
       </c>
       <c r="G31" s="15">
-        <v>7235</v>
+        <v>6106</v>
       </c>
       <c r="H31" s="15">
-        <v>6106</v>
+        <v>6218</v>
       </c>
       <c r="I31" s="15">
-        <v>6218</v>
+        <v>6791</v>
       </c>
       <c r="J31" s="15">
-        <v>6791</v>
+        <v>0</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>6581</v>
       </c>
       <c r="L31" s="15">
-        <v>6581</v>
+        <v>6897</v>
       </c>
       <c r="M31" s="15">
-        <v>6897</v>
+        <v>7375</v>
       </c>
       <c r="N31" s="15">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1524,7 +1524,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1539,7 +1539,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1554,7 +1554,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1606,7 +1606,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1638,14 +1638,14 @@
       <c r="L37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>17</v>
+      <c r="M37" s="9">
+        <v>0</v>
       </c>
       <c r="N37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
@@ -1653,8 +1653,8 @@
         <v>29</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
+      <c r="E38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>17</v>
@@ -1684,7 +1684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
@@ -1693,14 +1693,14 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>-744</v>
+        <v>0</v>
       </c>
       <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
         <v>-4151</v>
       </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" s="9" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1732,25 +1732,25 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>-32938</v>
+        <v>-79043</v>
       </c>
       <c r="F40" s="11">
-        <v>-79043</v>
+        <v>-120553</v>
       </c>
       <c r="G40" s="11">
-        <v>-120553</v>
+        <v>-28419</v>
       </c>
       <c r="H40" s="11">
-        <v>-28419</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
       </c>
       <c r="L40" s="11">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1810,37 +1810,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>1130528</v>
+        <v>996588</v>
       </c>
       <c r="F42" s="11">
-        <v>996588</v>
+        <v>1616599</v>
       </c>
       <c r="G42" s="11">
-        <v>1616599</v>
+        <v>1083544</v>
       </c>
       <c r="H42" s="11">
-        <v>1083544</v>
+        <v>1149756</v>
       </c>
       <c r="I42" s="11">
-        <v>1149756</v>
-      </c>
-      <c r="J42" s="11">
         <v>1261918</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>17</v>
+      <c r="J42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1253660</v>
       </c>
       <c r="L42" s="11">
-        <v>1253660</v>
+        <v>1543131</v>
       </c>
       <c r="M42" s="11">
-        <v>1543131</v>
+        <v>1847502</v>
       </c>
       <c r="N42" s="11">
-        <v>1847502</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1786300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
@@ -1849,37 +1849,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>1466177</v>
+        <v>2047327</v>
       </c>
       <c r="F43" s="9">
-        <v>2047327</v>
+        <v>2598576</v>
       </c>
       <c r="G43" s="9">
-        <v>2598576</v>
+        <v>2288232</v>
       </c>
       <c r="H43" s="9">
-        <v>2288232</v>
+        <v>2248458</v>
       </c>
       <c r="I43" s="9">
-        <v>2248458</v>
-      </c>
-      <c r="J43" s="9">
         <v>2559915</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>17</v>
+      <c r="J43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2766238</v>
       </c>
       <c r="L43" s="9">
-        <v>2766238</v>
+        <v>3490127</v>
       </c>
       <c r="M43" s="9">
-        <v>3490127</v>
+        <v>3818889</v>
       </c>
       <c r="N43" s="9">
-        <v>3818889</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3848163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>23</v>
       </c>
@@ -1888,74 +1888,74 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>16812</v>
+        <v>15368</v>
       </c>
       <c r="F44" s="11">
-        <v>15368</v>
+        <v>18278</v>
       </c>
       <c r="G44" s="11">
-        <v>18278</v>
+        <v>15272</v>
       </c>
       <c r="H44" s="11">
-        <v>15272</v>
+        <v>10421</v>
       </c>
       <c r="I44" s="11">
-        <v>10421</v>
-      </c>
-      <c r="J44" s="11">
         <v>13656</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>17</v>
+      <c r="J44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11">
+        <v>16598</v>
       </c>
       <c r="L44" s="11">
-        <v>16598</v>
+        <v>16891</v>
       </c>
       <c r="M44" s="11">
-        <v>16891</v>
+        <v>43391</v>
       </c>
       <c r="N44" s="11">
-        <v>43391</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>2579835</v>
+        <v>2980240</v>
       </c>
       <c r="F45" s="15">
-        <v>2980240</v>
+        <v>4108749</v>
       </c>
       <c r="G45" s="15">
-        <v>4108749</v>
+        <v>3358629</v>
       </c>
       <c r="H45" s="15">
-        <v>3358629</v>
+        <v>3408635</v>
       </c>
       <c r="I45" s="15">
-        <v>3408635</v>
+        <v>3835489</v>
       </c>
       <c r="J45" s="15">
-        <v>3835489</v>
+        <v>0</v>
       </c>
       <c r="K45" s="15">
-        <v>0</v>
+        <v>4036496</v>
       </c>
       <c r="L45" s="15">
-        <v>4036496</v>
+        <v>5050149</v>
       </c>
       <c r="M45" s="15">
-        <v>5050149</v>
+        <v>5709782</v>
       </c>
       <c r="N45" s="15">
-        <v>5709782</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5682138</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1970,7 +1970,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1985,7 +1985,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2000,7 +2000,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>15</v>
       </c>
@@ -2087,11 +2087,11 @@
       <c r="M51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="9">
+        <v>1946000000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -2138,15 +2138,15 @@
         <v>32</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>-372000000</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="E53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="9">
         <v>691833333</v>
       </c>
+      <c r="G53" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" s="9" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>19</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>20</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>21</v>
       </c>
@@ -2256,37 +2256,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>399479859</v>
+        <v>446714219</v>
       </c>
       <c r="F56" s="11">
-        <v>446714219</v>
+        <v>581588015</v>
       </c>
       <c r="G56" s="11">
-        <v>581588015</v>
+        <v>565524008</v>
       </c>
       <c r="H56" s="11">
-        <v>565524008</v>
+        <v>545851672</v>
       </c>
       <c r="I56" s="11">
-        <v>545851672</v>
+        <v>608153253</v>
       </c>
       <c r="J56" s="11">
-        <v>608153253</v>
+        <v>670054780</v>
       </c>
       <c r="K56" s="11">
-        <v>670054780</v>
+        <v>699196877</v>
       </c>
       <c r="L56" s="11">
-        <v>699196877</v>
+        <v>759788774</v>
       </c>
       <c r="M56" s="11">
-        <v>759788774</v>
+        <v>827363189</v>
       </c>
       <c r="N56" s="11">
-        <v>827363189</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>892703648</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
@@ -2295,37 +2295,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>334133318</v>
+        <v>451400975</v>
       </c>
       <c r="F57" s="9">
-        <v>451400975</v>
+        <v>571360619</v>
       </c>
       <c r="G57" s="9">
-        <v>571360619</v>
+        <v>552046321</v>
       </c>
       <c r="H57" s="9">
-        <v>552046321</v>
+        <v>544193791</v>
       </c>
       <c r="I57" s="9">
-        <v>544193791</v>
+        <v>546290013</v>
       </c>
       <c r="J57" s="9">
-        <v>546290013</v>
+        <v>550776341</v>
       </c>
       <c r="K57" s="9">
-        <v>550776341</v>
+        <v>581753523</v>
       </c>
       <c r="L57" s="9">
-        <v>581753523</v>
+        <v>720951663</v>
       </c>
       <c r="M57" s="9">
-        <v>720951663</v>
+        <v>751306118</v>
       </c>
       <c r="N57" s="9">
-        <v>751306118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>794254489</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>23</v>
       </c>
@@ -2334,37 +2334,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>323307692</v>
+        <v>365690476</v>
       </c>
       <c r="F58" s="11">
-        <v>365690476</v>
+        <v>406133333</v>
       </c>
       <c r="G58" s="11">
-        <v>406133333</v>
+        <v>339377778</v>
       </c>
       <c r="H58" s="11">
-        <v>339377778</v>
+        <v>325406250</v>
       </c>
       <c r="I58" s="11">
-        <v>325406250</v>
+        <v>333073171</v>
       </c>
       <c r="J58" s="11">
-        <v>333073171</v>
+        <v>338758621</v>
       </c>
       <c r="K58" s="11">
-        <v>338758621</v>
+        <v>502969697</v>
       </c>
       <c r="L58" s="11">
-        <v>502969697</v>
+        <v>675640000</v>
       </c>
       <c r="M58" s="11">
-        <v>675640000</v>
+        <v>735440678</v>
       </c>
       <c r="N58" s="11">
-        <v>735440678</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>714515625</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2379,7 +2379,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2394,7 +2394,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>34</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2461,7 +2461,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>15</v>
       </c>
@@ -2493,14 +2493,14 @@
       <c r="L64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>17</v>
+      <c r="M64" s="9">
+        <v>0</v>
       </c>
       <c r="N64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-619</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
@@ -2508,8 +2508,8 @@
         <v>29</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
-        <v>0</v>
+      <c r="E65" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>17</v>
@@ -2539,7 +2539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>26</v>
       </c>
@@ -2548,14 +2548,14 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
         <v>1622</v>
       </c>
+      <c r="G66" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" s="9" t="s">
         <v>17</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
@@ -2626,37 +2626,37 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>-588537</v>
+        <v>-672841</v>
       </c>
       <c r="F68" s="9">
-        <v>-672841</v>
+        <v>-825922</v>
       </c>
       <c r="G68" s="9">
-        <v>-825922</v>
+        <v>-889611</v>
       </c>
       <c r="H68" s="9">
-        <v>-889611</v>
+        <v>-816013</v>
       </c>
       <c r="I68" s="9">
-        <v>-816013</v>
+        <v>-1028232</v>
       </c>
       <c r="J68" s="9">
-        <v>-1028232</v>
+        <v>-1023295</v>
       </c>
       <c r="K68" s="9">
-        <v>-1023295</v>
+        <v>-1006339</v>
       </c>
       <c r="L68" s="9">
-        <v>-1006339</v>
+        <v>-1306718</v>
       </c>
       <c r="M68" s="9">
-        <v>-1306718</v>
+        <v>-1433154</v>
       </c>
       <c r="N68" s="9">
-        <v>-1433154</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1358056</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
@@ -2665,37 +2665,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>-909978</v>
+        <v>-1269475</v>
       </c>
       <c r="F69" s="11">
-        <v>-1269475</v>
+        <v>-1480421</v>
       </c>
       <c r="G69" s="11">
-        <v>-1480421</v>
+        <v>-1619292</v>
       </c>
       <c r="H69" s="11">
-        <v>-1619292</v>
+        <v>-2131962</v>
       </c>
       <c r="I69" s="11">
-        <v>-2131962</v>
+        <v>-2311624</v>
       </c>
       <c r="J69" s="11">
-        <v>-2311624</v>
+        <v>-2660595</v>
       </c>
       <c r="K69" s="11">
-        <v>-2660595</v>
+        <v>-2823893</v>
       </c>
       <c r="L69" s="11">
-        <v>-2823893</v>
+        <v>-3248247</v>
       </c>
       <c r="M69" s="11">
-        <v>-3248247</v>
+        <v>-3404487</v>
       </c>
       <c r="N69" s="11">
-        <v>-3404487</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3251351</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>23</v>
       </c>
@@ -2704,74 +2704,74 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>-6708</v>
+        <v>-10459</v>
       </c>
       <c r="F70" s="9">
-        <v>-10459</v>
+        <v>-10045</v>
       </c>
       <c r="G70" s="9">
-        <v>-10045</v>
+        <v>-13227</v>
       </c>
       <c r="H70" s="9">
-        <v>-13227</v>
+        <v>-8634</v>
       </c>
       <c r="I70" s="9">
-        <v>-8634</v>
+        <v>-13574</v>
       </c>
       <c r="J70" s="9">
-        <v>-13574</v>
+        <v>-11843</v>
       </c>
       <c r="K70" s="9">
-        <v>-11843</v>
+        <v>-13541</v>
       </c>
       <c r="L70" s="9">
-        <v>-13541</v>
+        <v>-13276</v>
       </c>
       <c r="M70" s="9">
-        <v>-13276</v>
+        <v>-32680</v>
       </c>
       <c r="N70" s="9">
-        <v>-32680</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-1504729</v>
+        <v>-1952775</v>
       </c>
       <c r="F71" s="13">
-        <v>-1952775</v>
+        <v>-2314766</v>
       </c>
       <c r="G71" s="13">
-        <v>-2314766</v>
+        <v>-2522130</v>
       </c>
       <c r="H71" s="13">
-        <v>-2522130</v>
+        <v>-2956609</v>
       </c>
       <c r="I71" s="13">
-        <v>-2956609</v>
+        <v>-3353430</v>
       </c>
       <c r="J71" s="13">
-        <v>-3353430</v>
+        <v>-3695733</v>
       </c>
       <c r="K71" s="13">
-        <v>-3695733</v>
+        <v>-3843773</v>
       </c>
       <c r="L71" s="13">
-        <v>-3843773</v>
+        <v>-4568241</v>
       </c>
       <c r="M71" s="13">
-        <v>-4568241</v>
+        <v>-4870321</v>
       </c>
       <c r="N71" s="13">
-        <v>-4870321</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4616217</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2786,7 +2786,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2801,7 +2801,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2816,7 +2816,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2868,7 +2868,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>15</v>
       </c>
@@ -2900,14 +2900,14 @@
       <c r="L77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>17</v>
+      <c r="M77" s="9">
+        <v>0</v>
       </c>
       <c r="N77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -2915,8 +2915,8 @@
         <v>29</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11">
-        <v>0</v>
+      <c r="E78" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>17</v>
@@ -2946,7 +2946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>26</v>
       </c>
@@ -2955,14 +2955,14 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="F79" s="9">
-        <v>0</v>
-      </c>
-      <c r="G79" s="9">
         <v>-2529</v>
       </c>
+      <c r="G79" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" s="9" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>19</v>
       </c>
@@ -2994,19 +2994,19 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>-32938</v>
+        <v>-34816</v>
       </c>
       <c r="F80" s="11">
-        <v>-34816</v>
+        <v>-41510</v>
       </c>
       <c r="G80" s="11">
-        <v>-41510</v>
+        <v>-28419</v>
       </c>
       <c r="H80" s="11">
-        <v>-28419</v>
+        <v>28419</v>
       </c>
       <c r="I80" s="11">
-        <v>28419</v>
+        <v>0</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -3033,37 +3033,37 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>541991</v>
+        <v>288488</v>
       </c>
       <c r="F81" s="9">
-        <v>288488</v>
+        <v>726918</v>
       </c>
       <c r="G81" s="9">
-        <v>726918</v>
+        <v>193933</v>
       </c>
       <c r="H81" s="9">
-        <v>193933</v>
+        <v>310079</v>
       </c>
       <c r="I81" s="9">
-        <v>310079</v>
+        <v>233686</v>
       </c>
       <c r="J81" s="9">
-        <v>233686</v>
+        <v>224347</v>
       </c>
       <c r="K81" s="9">
-        <v>224347</v>
+        <v>247321</v>
       </c>
       <c r="L81" s="9">
-        <v>247321</v>
+        <v>236413</v>
       </c>
       <c r="M81" s="9">
-        <v>236413</v>
+        <v>414348</v>
       </c>
       <c r="N81" s="9">
-        <v>414348</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>428244</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3072,37 +3072,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>556199</v>
+        <v>768149</v>
       </c>
       <c r="F82" s="11">
-        <v>768149</v>
+        <v>1102129</v>
       </c>
       <c r="G82" s="11">
-        <v>1102129</v>
+        <v>668940</v>
       </c>
       <c r="H82" s="11">
-        <v>668940</v>
+        <v>111749</v>
       </c>
       <c r="I82" s="11">
-        <v>111749</v>
+        <v>248291</v>
       </c>
       <c r="J82" s="11">
-        <v>248291</v>
+        <v>-62583</v>
       </c>
       <c r="K82" s="11">
-        <v>-62583</v>
+        <v>-57655</v>
       </c>
       <c r="L82" s="11">
-        <v>-57655</v>
+        <v>241880</v>
       </c>
       <c r="M82" s="11">
-        <v>241880</v>
+        <v>414402</v>
       </c>
       <c r="N82" s="11">
-        <v>414402</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>596812</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>23</v>
       </c>
@@ -3111,71 +3111,71 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>10104</v>
+        <v>4900</v>
       </c>
       <c r="F83" s="9">
-        <v>4900</v>
+        <v>8231</v>
       </c>
       <c r="G83" s="9">
-        <v>8231</v>
+        <v>2045</v>
       </c>
       <c r="H83" s="9">
-        <v>2045</v>
+        <v>1779</v>
       </c>
       <c r="I83" s="9">
-        <v>1779</v>
+        <v>82</v>
       </c>
       <c r="J83" s="9">
-        <v>82</v>
+        <v>-2019</v>
       </c>
       <c r="K83" s="9">
-        <v>-2019</v>
+        <v>3057</v>
       </c>
       <c r="L83" s="9">
-        <v>3057</v>
+        <v>3615</v>
       </c>
       <c r="M83" s="9">
-        <v>3615</v>
+        <v>10711</v>
       </c>
       <c r="N83" s="9">
-        <v>10711</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39538</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1075106</v>
+        <v>1026721</v>
       </c>
       <c r="F84" s="13">
-        <v>1026721</v>
+        <v>1793239</v>
       </c>
       <c r="G84" s="13">
-        <v>1793239</v>
+        <v>836499</v>
       </c>
       <c r="H84" s="13">
-        <v>836499</v>
+        <v>452026</v>
       </c>
       <c r="I84" s="13">
-        <v>452026</v>
+        <v>482059</v>
       </c>
       <c r="J84" s="13">
-        <v>482059</v>
+        <v>159745</v>
       </c>
       <c r="K84" s="13">
-        <v>159745</v>
+        <v>192723</v>
       </c>
       <c r="L84" s="13">
-        <v>192723</v>
+        <v>481908</v>
       </c>
       <c r="M84" s="13">
-        <v>481908</v>
+        <v>839461</v>
       </c>
       <c r="N84" s="13">
-        <v>839461</v>
+        <v>1065921</v>
       </c>
     </row>
   </sheetData>
